--- a/self-sensing-data.xlsx
+++ b/self-sensing-data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atul_t/Code/self-sensing-polynomial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20027C1-35B4-4F4C-9AEC-A41863490887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7207996-5087-5644-897F-F882118E5ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20620" yWindow="1040" windowWidth="20340" windowHeight="25380" xr2:uid="{CD7E04FA-3DC5-0549-AED1-22F327BFF7A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="9">
   <si>
     <t>gpm</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>1506D</t>
+  </si>
+  <si>
+    <t>RPM</t>
   </si>
 </sst>
 </file>
@@ -431,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC95DCC2-14F1-DE4C-AA5C-951773332825}">
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:G260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -447,19 +450,22 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -467,19 +473,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C2">
+        <v>3600</v>
+      </c>
+      <c r="D2">
         <v>65</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>118.89383333333335</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -487,19 +496,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C3">
+        <v>3600</v>
+      </c>
+      <c r="D3">
         <v>65</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>119.12881430637958</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>24.36066666666667</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -507,19 +519,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C4">
+        <v>3600</v>
+      </c>
+      <c r="D4">
         <v>65</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>116.87091012911131</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>48.344000000000001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -527,19 +542,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C5">
+        <v>3600</v>
+      </c>
+      <c r="D5">
         <v>65</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>111.59917373668033</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>72.412714285714287</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4.55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -547,19 +565,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C6">
+        <v>3600</v>
+      </c>
+      <c r="D6">
         <v>65</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>102.30234440048025</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>96.403999999999996</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5.13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -567,19 +588,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C7">
+        <v>3600</v>
+      </c>
+      <c r="D7">
         <v>65</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>90.60408345091659</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>120.03285714285714</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5.73</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -587,19 +611,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C8">
+        <v>3600</v>
+      </c>
+      <c r="D8">
         <v>60</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>102.37314285714285</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2.15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -607,19 +634,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C9">
+        <v>3600</v>
+      </c>
+      <c r="D9">
         <v>60</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>102.91060341658772</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>22.316857142857145</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -627,19 +657,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C10">
+        <v>3600</v>
+      </c>
+      <c r="D10">
         <v>60</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>101.36421769007006</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>44.455666666666666</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3.11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -647,19 +680,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C11">
+        <v>3600</v>
+      </c>
+      <c r="D11">
         <v>60</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>97.073867627508065</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>67.468599999999995</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3.65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -667,19 +703,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C12">
+        <v>3600</v>
+      </c>
+      <c r="D12">
         <v>60</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>89.841200528600396</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>89.405142857142863</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -687,19 +726,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C13">
+        <v>3600</v>
+      </c>
+      <c r="D13">
         <v>60</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>80.018499151215124</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>111.69457142857142</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4.57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -707,19 +749,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C14">
+        <v>3600</v>
+      </c>
+      <c r="D14">
         <v>60</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>69.301795332569711</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>133.24716666666666</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4.97</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -727,19 +772,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C15">
+        <v>3600</v>
+      </c>
+      <c r="D15">
         <v>60</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>53.538027715564674</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>155.26371428571429</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5.3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -747,19 +795,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C16">
+        <v>3600</v>
+      </c>
+      <c r="D16">
         <v>60</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>31.52456380626413</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>177.3306666666667</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>5.56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -767,19 +818,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C17">
+        <v>3600</v>
+      </c>
+      <c r="D17">
         <v>55</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>86.804714285714297</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -787,19 +841,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C18">
+        <v>3600</v>
+      </c>
+      <c r="D18">
         <v>55</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>87.452683273720922</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>20.362199999999998</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2.1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -807,19 +864,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C19">
+        <v>3600</v>
+      </c>
+      <c r="D19">
         <v>55</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>86.321121011936128</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>41.848499999999994</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -827,19 +887,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C20">
+        <v>3600</v>
+      </c>
+      <c r="D20">
         <v>55</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>83.180220946245555</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>61.646666666666668</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.86</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -847,19 +910,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C21">
+        <v>3600</v>
+      </c>
+      <c r="D21">
         <v>55</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>77.661505909294874</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>81.33042857142857</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3.22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -867,19 +933,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C22">
+        <v>3600</v>
+      </c>
+      <c r="D22">
         <v>55</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>69.617589884450922</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>102.24485714285716</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3.57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -887,19 +956,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C23">
+        <v>3600</v>
+      </c>
+      <c r="D23">
         <v>55</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>60.419217562984478</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>122.59750000000001</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3.91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -907,19 +979,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C24">
+        <v>3600</v>
+      </c>
+      <c r="D24">
         <v>55</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>48.128772308484727</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>142.19024999999999</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -927,19 +1002,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C25">
+        <v>3600</v>
+      </c>
+      <c r="D25">
         <v>55</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>29.497013210523711</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>163.28625</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -947,19 +1025,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C26">
+        <v>3600</v>
+      </c>
+      <c r="D26">
         <v>50</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>71.837666666666664</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -967,19 +1048,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C27">
+        <v>3600</v>
+      </c>
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>72.359808683855604</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>18.575833333333332</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -987,19 +1071,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C28">
+        <v>3600</v>
+      </c>
+      <c r="D28">
         <v>50</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>71.439345802253257</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>37.651333333333334</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1007,19 +1094,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C29">
+        <v>3600</v>
+      </c>
+      <c r="D29">
         <v>50</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>69.042082939257767</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>55.530857142857144</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2.17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1027,19 +1117,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C30">
+        <v>3600</v>
+      </c>
+      <c r="D30">
         <v>50</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>64.190402045737329</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>74.686999999999998</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1047,19 +1140,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C31">
+        <v>3600</v>
+      </c>
+      <c r="D31">
         <v>50</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>58.091966585362798</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>92.182999999999993</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2.71</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1067,19 +1163,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C32">
+        <v>3600</v>
+      </c>
+      <c r="D32">
         <v>50</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>50.377555438765143</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>111.30085714285715</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2.95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1087,19 +1186,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C33">
+        <v>3600</v>
+      </c>
+      <c r="D33">
         <v>50</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>39.869840844549422</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>129.40299999999999</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3.15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1107,19 +1209,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C34">
+        <v>3600</v>
+      </c>
+      <c r="D34">
         <v>50</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>24.568798860918491</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>148.81899999999999</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>3.31</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1127,19 +1232,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C35">
+        <v>3600</v>
+      </c>
+      <c r="D35">
         <v>40</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>45.875999999999998</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1147,19 +1255,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C36">
+        <v>3600</v>
+      </c>
+      <c r="D36">
         <v>40</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>46.159876728535771</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>15.294499999999999</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.86</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1167,19 +1278,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C37">
+        <v>3600</v>
+      </c>
+      <c r="D37">
         <v>40</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>45.571934515138516</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>30.281499999999998</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1187,19 +1301,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C38">
+        <v>3600</v>
+      </c>
+      <c r="D38">
         <v>40</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>44.072672862902948</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>44.418833333333339</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1207,19 +1324,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C39">
+        <v>3600</v>
+      </c>
+      <c r="D39">
         <v>40</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>41.083026554218691</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>59.349000000000004</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1.3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1227,19 +1347,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C40">
+        <v>3600</v>
+      </c>
+      <c r="D40">
         <v>40</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>36.887229428803892</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>74.460999999999999</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1.43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1247,19 +1370,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C41">
+        <v>3600</v>
+      </c>
+      <c r="D41">
         <v>40</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>31.984219513359236</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>89.217142857142861</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1.56</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1267,19 +1393,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C42">
+        <v>3600</v>
+      </c>
+      <c r="D42">
         <v>40</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>25.510454664871563</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>103.28557142857142</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>1.65</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1287,19 +1416,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C43">
+        <v>3600</v>
+      </c>
+      <c r="D43">
         <v>40</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>16.109643762390583</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>118.34862500000001</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1.73</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1307,19 +1439,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C44">
+        <v>3600</v>
+      </c>
+      <c r="D44">
         <v>30</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>25.840166666666672</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1327,19 +1462,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C45">
+        <v>3600</v>
+      </c>
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>25.993815747367137</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>11.254571428571428</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1347,19 +1485,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C46">
+        <v>3600</v>
+      </c>
+      <c r="D46">
         <v>30</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>25.704881586880006</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>22.234125000000002</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1367,19 +1508,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C47">
+        <v>3600</v>
+      </c>
+      <c r="D47">
         <v>30</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>24.821238604141477</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>33.673666666666662</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1387,19 +1531,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C48">
+        <v>3600</v>
+      </c>
+      <c r="D48">
         <v>30</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>23.227616852514757</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>44.531571428571432</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1407,19 +1554,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C49">
+        <v>3600</v>
+      </c>
+      <c r="D49">
         <v>30</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>21.030806321572864</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>55.207499999999996</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.65</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1427,19 +1577,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C50">
+        <v>3600</v>
+      </c>
+      <c r="D50">
         <v>30</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>17.903609401800061</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>67.488142857142861</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1447,19 +1600,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C51">
+        <v>3600</v>
+      </c>
+      <c r="D51">
         <v>30</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>14.143672421452941</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>78.242714285714285</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.74</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1467,19 +1623,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C52">
+        <v>3600</v>
+      </c>
+      <c r="D52">
         <v>30</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>8.9032979667446988</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>89.146714285714282</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.77</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1487,19 +1646,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C53">
+        <v>3600</v>
+      </c>
+      <c r="D53">
         <v>20</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>11.531000000000001</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>0</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1507,19 +1669,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C54">
+        <v>3600</v>
+      </c>
+      <c r="D54">
         <v>20</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>11.61492438933837</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>7.4359999999999999</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.16</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1527,19 +1692,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C55">
+        <v>3600</v>
+      </c>
+      <c r="D55">
         <v>20</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>11.474406122169437</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>15.362500000000002</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0.17</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1547,19 +1715,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C56">
+        <v>3600</v>
+      </c>
+      <c r="D56">
         <v>20</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>11.162282325282099</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>22.471142857142858</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0.19</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1567,19 +1738,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C57">
+        <v>3600</v>
+      </c>
+      <c r="D57">
         <v>20</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>10.456667394351573</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>30.289571428571431</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>0.21</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1587,19 +1761,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C58">
+        <v>3600</v>
+      </c>
+      <c r="D58">
         <v>20</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>9.4876195503019787</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>37.102800000000002</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>0.23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1607,19 +1784,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C59">
+        <v>3600</v>
+      </c>
+      <c r="D59">
         <v>20</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>8.3269466448491407</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>44.151999999999994</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>0.25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1627,19 +1807,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C60">
+        <v>3600</v>
+      </c>
+      <c r="D60">
         <v>20</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>6.4564640101410937</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>52.370999999999995</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>0.26</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1647,19 +1830,22 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C61">
+        <v>3600</v>
+      </c>
+      <c r="D61">
         <v>20</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>4.087909512417502</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>59.583857142857141</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>0.27</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1667,19 +1853,22 @@
         <v>6.25</v>
       </c>
       <c r="C62">
+        <v>3600</v>
+      </c>
+      <c r="D62">
         <v>65</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>186.37134399999999</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>0</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1687,19 +1876,22 @@
         <v>6.25</v>
       </c>
       <c r="C63">
+        <v>3600</v>
+      </c>
+      <c r="D63">
         <v>65</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>190.78958406225382</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>30.565219243333335</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>6.06</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1707,19 +1899,22 @@
         <v>6.25</v>
       </c>
       <c r="C64">
+        <v>3600</v>
+      </c>
+      <c r="D64">
         <v>65</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>189.37365101012648</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>59.10471201</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>7.19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1727,19 +1922,22 @@
         <v>6.25</v>
       </c>
       <c r="C65">
+        <v>3600</v>
+      </c>
+      <c r="D65">
         <v>65</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>183.29016968966457</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>89.599408832857151</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>8.44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1747,19 +1945,22 @@
         <v>6.25</v>
       </c>
       <c r="C66">
+        <v>3600</v>
+      </c>
+      <c r="D66">
         <v>65</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>172.75415875796185</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>117.99295480000001</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>9.59</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1767,19 +1968,22 @@
         <v>6.25</v>
       </c>
       <c r="C67">
+        <v>3600</v>
+      </c>
+      <c r="D67">
         <v>65</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>159.30108120256537</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>148.03568838749999</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>10.7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1787,19 +1991,22 @@
         <v>6.25</v>
       </c>
       <c r="C68">
+        <v>3600</v>
+      </c>
+      <c r="D68">
         <v>65</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>142.87111858283609</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>177.22219466250002</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>11.7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -1807,19 +2014,22 @@
         <v>6.25</v>
       </c>
       <c r="C69">
+        <v>3600</v>
+      </c>
+      <c r="D69">
         <v>65</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>119.55288691356104</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>207.45819472499997</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>12.5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -1827,19 +2037,22 @@
         <v>6.25</v>
       </c>
       <c r="C70">
+        <v>3600</v>
+      </c>
+      <c r="D70">
         <v>60</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>159.65375520000001</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>0</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>3.85</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1847,19 +2060,22 @@
         <v>6.25</v>
       </c>
       <c r="C71">
+        <v>3600</v>
+      </c>
+      <c r="D71">
         <v>60</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>163.3353578044283</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>27.624672253333333</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>4.84</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1867,19 +2083,22 @@
         <v>6.25</v>
       </c>
       <c r="C72">
+        <v>3600</v>
+      </c>
+      <c r="D72">
         <v>60</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>162.33947355442493</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>55.382101534999997</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>5.77</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -1887,19 +2106,22 @@
         <v>6.25</v>
       </c>
       <c r="C73">
+        <v>3600</v>
+      </c>
+      <c r="D73">
         <v>60</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>157.71047273283597</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>82.258028664999998</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>6.7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -1907,19 +2129,22 @@
         <v>6.25</v>
       </c>
       <c r="C74">
+        <v>3600</v>
+      </c>
+      <c r="D74">
         <v>60</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>148.68916473506047</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>109.20945957142858</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>7.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -1927,19 +2152,22 @@
         <v>6.25</v>
       </c>
       <c r="C75">
+        <v>3600</v>
+      </c>
+      <c r="D75">
         <v>60</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>137.14086338836361</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>137.22325134285714</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>8.5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -1947,19 +2175,22 @@
         <v>6.25</v>
       </c>
       <c r="C76">
+        <v>3600</v>
+      </c>
+      <c r="D76">
         <v>60</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>122.89074336608415</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>164.67374504444444</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>9.26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -1967,19 +2198,22 @@
         <v>6.25</v>
       </c>
       <c r="C77">
+        <v>3600</v>
+      </c>
+      <c r="D77">
         <v>60</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>104.08109025532684</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>191.53729417777777</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>9.92</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -1987,19 +2221,22 @@
         <v>6.25</v>
       </c>
       <c r="C78">
+        <v>3600</v>
+      </c>
+      <c r="D78">
         <v>60</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>79.818068114424605</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>218.54742622500001</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>10.5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2007,19 +2244,22 @@
         <v>6.25</v>
       </c>
       <c r="C79">
+        <v>3600</v>
+      </c>
+      <c r="D79">
         <v>60</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>44.37314975537614</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>246.05078777142856</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2027,19 +2267,22 @@
         <v>6.25</v>
       </c>
       <c r="C80">
+        <v>3600</v>
+      </c>
+      <c r="D80">
         <v>55</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>134.42571151428572</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>0</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>3.05</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2047,19 +2290,22 @@
         <v>6.25</v>
       </c>
       <c r="C81">
+        <v>3600</v>
+      </c>
+      <c r="D81">
         <v>55</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>137.32828075550137</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>25.055443446666668</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>3.76</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2067,19 +2313,22 @@
         <v>6.25</v>
       </c>
       <c r="C82">
+        <v>3600</v>
+      </c>
+      <c r="D82">
         <v>55</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>136.58149176851506</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>50.698132038750003</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>4.49</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2087,19 +2336,22 @@
         <v>6.25</v>
       </c>
       <c r="C83">
+        <v>3600</v>
+      </c>
+      <c r="D83">
         <v>55</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>132.55226969286562</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>75.555836677499997</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>5.21</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2107,19 +2359,22 @@
         <v>6.25</v>
       </c>
       <c r="C84">
+        <v>3600</v>
+      </c>
+      <c r="D84">
         <v>55</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>124.83370357613907</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>100.51501561250001</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>5.92</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2127,19 +2382,22 @@
         <v>6.25</v>
       </c>
       <c r="C85">
+        <v>3600</v>
+      </c>
+      <c r="D85">
         <v>55</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>115.73565030013536</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>125.22050379999999</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>6.57</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2147,19 +2405,22 @@
         <v>6.25</v>
       </c>
       <c r="C86">
+        <v>3600</v>
+      </c>
+      <c r="D86">
         <v>55</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>103.93742368562084</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>150.69634756666667</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>7.18</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2167,19 +2428,22 @@
         <v>6.25</v>
       </c>
       <c r="C87">
+        <v>3600</v>
+      </c>
+      <c r="D87">
         <v>55</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>87.222264775408036</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>175.80554029999999</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>7.69</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2187,19 +2451,22 @@
         <v>6.25</v>
       </c>
       <c r="C88">
+        <v>3600</v>
+      </c>
+      <c r="D88">
         <v>55</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>67.300818931619631</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>200.36737062500001</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2207,19 +2474,22 @@
         <v>6.25</v>
       </c>
       <c r="C89">
+        <v>3600</v>
+      </c>
+      <c r="D89">
         <v>55</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>39.979418873616439</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>225.80113030000001</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>8.51</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2227,19 +2497,22 @@
         <v>6.25</v>
       </c>
       <c r="C90">
+        <v>3600</v>
+      </c>
+      <c r="D90">
         <v>50</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>111.23239391666665</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>0</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2247,19 +2520,22 @@
         <v>6.25</v>
       </c>
       <c r="C91">
+        <v>3600</v>
+      </c>
+      <c r="D91">
         <v>50</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>113.50106618008977</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>23.333637871666667</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>2.85</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2267,19 +2543,22 @@
         <v>6.25</v>
       </c>
       <c r="C92">
+        <v>3600</v>
+      </c>
+      <c r="D92">
         <v>50</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>112.65261072998449</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>46.621934617142855</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>3.43</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2287,19 +2566,22 @@
         <v>6.25</v>
       </c>
       <c r="C93">
+        <v>3600</v>
+      </c>
+      <c r="D93">
         <v>50</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>109.39158346009724</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>68.677136421250012</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>3.95</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -2307,19 +2589,22 @@
         <v>6.25</v>
       </c>
       <c r="C94">
+        <v>3600</v>
+      </c>
+      <c r="D94">
         <v>50</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>102.99938398289885</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>91.059708593750003</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>4.47</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -2327,19 +2612,22 @@
         <v>6.25</v>
       </c>
       <c r="C95">
+        <v>3600</v>
+      </c>
+      <c r="D95">
         <v>50</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>94.956901805267606</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>114.54425484285714</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>4.99</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -2347,19 +2635,22 @@
         <v>6.25</v>
       </c>
       <c r="C96">
+        <v>3600</v>
+      </c>
+      <c r="D96">
         <v>50</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>85.351174703851484</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>137.33574349999998</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>5.44</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2367,19 +2658,22 @@
         <v>6.25</v>
       </c>
       <c r="C97">
+        <v>3600</v>
+      </c>
+      <c r="D97">
         <v>50</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>72.09003861029926</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>159.38359260000001</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>5.8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2387,19 +2681,22 @@
         <v>6.25</v>
       </c>
       <c r="C98">
+        <v>3600</v>
+      </c>
+      <c r="D98">
         <v>50</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>54.424641524270641</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>182.33877947499997</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>6.14</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -2407,19 +2704,22 @@
         <v>6.25</v>
       </c>
       <c r="C99">
+        <v>3600</v>
+      </c>
+      <c r="D99">
         <v>50</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>33.531674198958342</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>205.27337836250001</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>6.41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2427,19 +2727,22 @@
         <v>6.25</v>
       </c>
       <c r="C100">
+        <v>3600</v>
+      </c>
+      <c r="D100">
         <v>40</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>71.34923335571429</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>0</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>1.26</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -2447,19 +2750,22 @@
         <v>6.25</v>
       </c>
       <c r="C101">
+        <v>3600</v>
+      </c>
+      <c r="D101">
         <v>40</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>72.651081575341479</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>18.537509439999997</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>1.54</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2467,19 +2773,22 @@
         <v>6.25</v>
       </c>
       <c r="C102">
+        <v>3600</v>
+      </c>
+      <c r="D102">
         <v>40</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>72.039572567072469</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>36.670414515714292</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>1.8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2487,19 +2796,22 @@
         <v>6.25</v>
       </c>
       <c r="C103">
+        <v>3600</v>
+      </c>
+      <c r="D103">
         <v>40</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>69.516348175960161</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>55.735366343750002</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>2.1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -2507,19 +2819,22 @@
         <v>6.25</v>
       </c>
       <c r="C104">
+        <v>3600</v>
+      </c>
+      <c r="D104">
         <v>40</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>65.363083363784526</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>73.795670403333332</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>2.36</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -2527,19 +2842,22 @@
         <v>6.25</v>
       </c>
       <c r="C105">
+        <v>3600</v>
+      </c>
+      <c r="D105">
         <v>40</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>60.283774155020254</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>91.839975628571423</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>2.62</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -2547,19 +2865,22 @@
         <v>6.25</v>
       </c>
       <c r="C106">
+        <v>3600</v>
+      </c>
+      <c r="D106">
         <v>40</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>54.381893186716212</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>109.27747018571431</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>2.83</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -2567,19 +2888,22 @@
         <v>6.25</v>
       </c>
       <c r="C107">
+        <v>3600</v>
+      </c>
+      <c r="D107">
         <v>40</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>45.769413352362648</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>127.0444212</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>3.01</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -2587,19 +2911,22 @@
         <v>6.25</v>
       </c>
       <c r="C108">
+        <v>3600</v>
+      </c>
+      <c r="D108">
         <v>40</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>33.724275632205064</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>146.40073903333334</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>3.2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -2607,19 +2934,22 @@
         <v>6.25</v>
       </c>
       <c r="C109">
+        <v>3600</v>
+      </c>
+      <c r="D109">
         <v>40</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>21.259733144195692</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>163.95425033750001</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>3.34</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -2627,19 +2957,22 @@
         <v>6.25</v>
       </c>
       <c r="C110">
+        <v>3600</v>
+      </c>
+      <c r="D110">
         <v>30</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>40.285549164999999</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>0</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>0.6</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -2647,19 +2980,22 @@
         <v>6.25</v>
       </c>
       <c r="C111">
+        <v>3600</v>
+      </c>
+      <c r="D111">
         <v>30</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>40.956318286047306</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>14.377708433333334</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>0.72</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -2667,19 +3003,22 @@
         <v>6.25</v>
       </c>
       <c r="C112">
+        <v>3600</v>
+      </c>
+      <c r="D112">
         <v>30</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>40.53174524477636</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>27.633826494999997</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>0.83</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -2687,19 +3026,22 @@
         <v>6.25</v>
       </c>
       <c r="C113">
+        <v>3600</v>
+      </c>
+      <c r="D113">
         <v>30</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>39.171806750014724</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>41.113501072499993</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>0.94</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -2707,19 +3049,22 @@
         <v>6.25</v>
       </c>
       <c r="C114">
+        <v>3600</v>
+      </c>
+      <c r="D114">
         <v>30</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>36.581926398563475</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>55.727354527499998</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>1.06</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -2727,19 +3072,22 @@
         <v>6.25</v>
       </c>
       <c r="C115">
+        <v>3600</v>
+      </c>
+      <c r="D115">
         <v>30</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>33.810449000856984</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>68.653487206250006</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -2747,19 +3095,22 @@
         <v>6.25</v>
       </c>
       <c r="C116">
+        <v>3600</v>
+      </c>
+      <c r="D116">
         <v>30</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>30.232228296230858</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>82.585223198750001</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>1.25</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -2767,19 +3118,22 @@
         <v>6.25</v>
       </c>
       <c r="C117">
+        <v>3600</v>
+      </c>
+      <c r="D117">
         <v>30</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>25.085915638841264</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>96.277500697142841</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>1.33</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -2787,19 +3141,22 @@
         <v>6.25</v>
       </c>
       <c r="C118">
+        <v>3600</v>
+      </c>
+      <c r="D118">
         <v>30</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>18.792058721202579</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>109.48201086250002</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>1.4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -2807,19 +3164,22 @@
         <v>6.25</v>
       </c>
       <c r="C119">
+        <v>3600</v>
+      </c>
+      <c r="D119">
         <v>30</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>11.773149174238748</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>122.98419528888888</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>1.46</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -2827,19 +3187,22 @@
         <v>6.25</v>
       </c>
       <c r="C120">
+        <v>3600</v>
+      </c>
+      <c r="D120">
         <v>20</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>18.034483273333333</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>0</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>0.25</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -2847,19 +3210,22 @@
         <v>6.25</v>
       </c>
       <c r="C121">
+        <v>3600</v>
+      </c>
+      <c r="D121">
         <v>20</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>18.32659196408386</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>9.570515276250001</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -2867,19 +3233,22 @@
         <v>6.25</v>
       </c>
       <c r="C122">
+        <v>3600</v>
+      </c>
+      <c r="D122">
         <v>20</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>18.100586223932719</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>18.692285537142855</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>0.3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -2887,19 +3256,22 @@
         <v>6.25</v>
       </c>
       <c r="C123">
+        <v>3600</v>
+      </c>
+      <c r="D123">
         <v>20</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>17.415656341507358</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>27.537693295714288</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>0.33</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -2907,19 +3279,22 @@
         <v>6.25</v>
       </c>
       <c r="C124">
+        <v>3600</v>
+      </c>
+      <c r="D124">
         <v>20</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>16.396089827740713</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>36.403207778750001</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>0.36</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -2927,19 +3302,22 @@
         <v>6.25</v>
       </c>
       <c r="C125">
+        <v>3600</v>
+      </c>
+      <c r="D125">
         <v>20</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>15.000237031923344</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>46.021788596249998</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>0.4</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -2947,19 +3325,22 @@
         <v>6.25</v>
       </c>
       <c r="C126">
+        <v>3600</v>
+      </c>
+      <c r="D126">
         <v>20</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>13.291038426902974</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>55.365698336250006</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>0.43</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -2967,19 +3348,22 @@
         <v>6.25</v>
       </c>
       <c r="C127">
+        <v>3600</v>
+      </c>
+      <c r="D127">
         <v>20</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>11.013157635418043</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>64.256936208571432</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>0.45</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -2987,19 +3371,22 @@
         <v>6.25</v>
       </c>
       <c r="C128">
+        <v>3600</v>
+      </c>
+      <c r="D128">
         <v>20</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>8.1704628526755521</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>73.099731444285709</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>0.47</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -3007,19 +3394,22 @@
         <v>6.25</v>
       </c>
       <c r="C129">
+        <v>3600</v>
+      </c>
+      <c r="D129">
         <v>20</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>5.0861735573907438</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>82.025193213749986</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>0.48</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -3027,19 +3417,22 @@
         <v>4.8</v>
       </c>
       <c r="C130">
+        <v>3600</v>
+      </c>
+      <c r="D130">
         <v>65</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>106.57140000000001</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>0</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>2.74</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3047,19 +3440,22 @@
         <v>4.8</v>
       </c>
       <c r="C131">
+        <v>3600</v>
+      </c>
+      <c r="D131">
         <v>65</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>109.69260162260117</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>31.170166666666663</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>3.26</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -3067,19 +3463,22 @@
         <v>4.8</v>
       </c>
       <c r="C132">
+        <v>3600</v>
+      </c>
+      <c r="D132">
         <v>65</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>110.10459841698055</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>62.44233333333333</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>4.08</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -3087,19 +3486,22 @@
         <v>4.8</v>
       </c>
       <c r="C133">
+        <v>3600</v>
+      </c>
+      <c r="D133">
         <v>65</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>105.66516329672007</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>94.601666666666674</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>4.8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3107,19 +3509,22 @@
         <v>4.8</v>
       </c>
       <c r="C134">
+        <v>3600</v>
+      </c>
+      <c r="D134">
         <v>65</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>98.325689262903083</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>125.07183333333334</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>5.46</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -3127,19 +3532,22 @@
         <v>4.8</v>
       </c>
       <c r="C135">
+        <v>3600</v>
+      </c>
+      <c r="D135">
         <v>60</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>91.457599999999985</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>0</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>2.12</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -3147,19 +3555,22 @@
         <v>4.8</v>
       </c>
       <c r="C136">
+        <v>3600</v>
+      </c>
+      <c r="D136">
         <v>60</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>94.693174008334935</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>29.047333333333331</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>2.64</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3167,19 +3578,22 @@
         <v>4.8</v>
       </c>
       <c r="C137">
+        <v>3600</v>
+      </c>
+      <c r="D137">
         <v>60</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>95.289907322246989</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>57.879714285714286</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>3.25</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -3187,19 +3601,22 @@
         <v>4.8</v>
       </c>
       <c r="C138">
+        <v>3600</v>
+      </c>
+      <c r="D138">
         <v>60</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>92.250637542778748</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>86.283333333333317</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>3.79</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -3207,19 +3624,22 @@
         <v>4.8</v>
       </c>
       <c r="C139">
+        <v>3600</v>
+      </c>
+      <c r="D139">
         <v>60</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>86.113693656712911</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>115.60060000000001</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>4.32</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -3227,19 +3647,22 @@
         <v>4.8</v>
       </c>
       <c r="C140">
+        <v>3600</v>
+      </c>
+      <c r="D140">
         <v>60</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>78.147168278270243</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>144.19499999999999</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>4.75</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -3247,19 +3670,22 @@
         <v>4.8</v>
       </c>
       <c r="C141">
+        <v>3600</v>
+      </c>
+      <c r="D141">
         <v>60</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>68.316891634696887</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>173.41928571428573</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>5.13</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3267,19 +3693,22 @@
         <v>4.8</v>
       </c>
       <c r="C142">
+        <v>3600</v>
+      </c>
+      <c r="D142">
         <v>60</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>55.653662165021451</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>202.66650000000001</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>5.37</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3287,19 +3716,22 @@
         <v>4.8</v>
       </c>
       <c r="C143">
+        <v>3600</v>
+      </c>
+      <c r="D143">
         <v>60</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>41.104737760096839</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>231.14350000000002</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>5.6</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3307,19 +3739,22 @@
         <v>4.8</v>
       </c>
       <c r="C144">
+        <v>3600</v>
+      </c>
+      <c r="D144">
         <v>55</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>77.692599999999999</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>0</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>1.68</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -3327,19 +3762,22 @@
         <v>4.8</v>
       </c>
       <c r="C145">
+        <v>3600</v>
+      </c>
+      <c r="D145">
         <v>55</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>80.393137398241038</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>26.6218</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>2.08</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3347,19 +3785,22 @@
         <v>4.8</v>
       </c>
       <c r="C146">
+        <v>3600</v>
+      </c>
+      <c r="D146">
         <v>55</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>81.188565043850943</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>53.166799999999988</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>2.56</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3367,19 +3808,22 @@
         <v>4.8</v>
       </c>
       <c r="C147">
+        <v>3600</v>
+      </c>
+      <c r="D147">
         <v>55</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>78.784763135240269</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>79.608166666666676</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>2.98</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -3387,19 +3831,22 @@
         <v>4.8</v>
       </c>
       <c r="C148">
+        <v>3600</v>
+      </c>
+      <c r="D148">
         <v>55</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>73.849025159790514</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>106.34200000000001</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>3.39</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3407,19 +3854,22 @@
         <v>4.8</v>
       </c>
       <c r="C149">
+        <v>3600</v>
+      </c>
+      <c r="D149">
         <v>55</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>67.549832948008572</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>131.98914285714287</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>3.7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -3427,19 +3877,22 @@
         <v>4.8</v>
       </c>
       <c r="C150">
+        <v>3600</v>
+      </c>
+      <c r="D150">
         <v>55</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>59.707908604094314</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>158.1405</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>3.97</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -3447,19 +3900,22 @@
         <v>4.8</v>
       </c>
       <c r="C151">
+        <v>3600</v>
+      </c>
+      <c r="D151">
         <v>55</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>49.121976061839128</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>185.38783333333333</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>4.18</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -3467,19 +3923,22 @@
         <v>4.8</v>
       </c>
       <c r="C152">
+        <v>3600</v>
+      </c>
+      <c r="D152">
         <v>55</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>37.355982170367696</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>211.19416666666666</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>4.37</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -3487,19 +3946,22 @@
         <v>4.8</v>
       </c>
       <c r="C153">
+        <v>3600</v>
+      </c>
+      <c r="D153">
         <v>55</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>27.072481396876114</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>229.96914285714288</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>4.46</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -3507,19 +3969,22 @@
         <v>4.8</v>
       </c>
       <c r="C154">
+        <v>3600</v>
+      </c>
+      <c r="D154">
         <v>50</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>64.338166666666666</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>0</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>1.29</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3527,19 +3992,22 @@
         <v>4.8</v>
       </c>
       <c r="C155">
+        <v>3600</v>
+      </c>
+      <c r="D155">
         <v>50</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>66.649559529065499</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>24.707333333333334</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>1.6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -3547,19 +4015,22 @@
         <v>4.8</v>
       </c>
       <c r="C156">
+        <v>3600</v>
+      </c>
+      <c r="D156">
         <v>50</v>
       </c>
-      <c r="D156">
+      <c r="E156">
         <v>67.346209901317209</v>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>48.346400000000003</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>1.96</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -3567,19 +4038,22 @@
         <v>4.8</v>
       </c>
       <c r="C157">
+        <v>3600</v>
+      </c>
+      <c r="D157">
         <v>50</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <v>65.473520925606095</v>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>72.272799999999989</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -3587,19 +4061,22 @@
         <v>4.8</v>
       </c>
       <c r="C158">
+        <v>3600</v>
+      </c>
+      <c r="D158">
         <v>50</v>
       </c>
-      <c r="D158">
+      <c r="E158">
         <v>61.503902535593689</v>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>96.486500000000021</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>2.59</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -3607,19 +4084,22 @@
         <v>4.8</v>
       </c>
       <c r="C159">
+        <v>3600</v>
+      </c>
+      <c r="D159">
         <v>50</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <v>56.357343222556082</v>
       </c>
-      <c r="E159">
+      <c r="F159">
         <v>120.08450000000001</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>2.81</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -3627,19 +4107,22 @@
         <v>4.8</v>
       </c>
       <c r="C160">
+        <v>3600</v>
+      </c>
+      <c r="D160">
         <v>50</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>49.824934240351958</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>144.04616666666666</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>3.01</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3647,19 +4130,22 @@
         <v>4.8</v>
       </c>
       <c r="C161">
+        <v>3600</v>
+      </c>
+      <c r="D161">
         <v>50</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <v>41.323264949911888</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>168.20514285714285</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>3.18</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -3667,19 +4153,22 @@
         <v>4.8</v>
       </c>
       <c r="C162">
+        <v>3600</v>
+      </c>
+      <c r="D162">
         <v>50</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <v>31.346182650602792</v>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>192.68799999999999</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>3.33</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -3687,19 +4176,22 @@
         <v>4.8</v>
       </c>
       <c r="C163">
+        <v>3600</v>
+      </c>
+      <c r="D163">
         <v>50</v>
       </c>
-      <c r="D163">
+      <c r="E163">
         <v>22.63568403083697</v>
       </c>
-      <c r="E163">
+      <c r="F163">
         <v>209.94557142857141</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>3.4</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -3707,19 +4199,22 @@
         <v>4.8</v>
       </c>
       <c r="C164">
+        <v>3600</v>
+      </c>
+      <c r="D164">
         <v>40</v>
       </c>
-      <c r="D164">
+      <c r="E164">
         <v>41.151000000000003</v>
       </c>
-      <c r="E164">
+      <c r="F164">
         <v>0</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>0.7</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -3727,19 +4222,22 @@
         <v>4.8</v>
       </c>
       <c r="C165">
+        <v>3600</v>
+      </c>
+      <c r="D165">
         <v>40</v>
       </c>
-      <c r="D165">
+      <c r="E165">
         <v>42.57454085749724</v>
       </c>
-      <c r="E165">
+      <c r="F165">
         <v>19.684333333333331</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>0.85</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3747,19 +4245,22 @@
         <v>4.8</v>
       </c>
       <c r="C166">
+        <v>3600</v>
+      </c>
+      <c r="D166">
         <v>40</v>
       </c>
-      <c r="D166">
+      <c r="E166">
         <v>42.988022901567973</v>
       </c>
-      <c r="E166">
+      <c r="F166">
         <v>38.510333333333335</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>1.04</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -3767,19 +4268,22 @@
         <v>4.8</v>
       </c>
       <c r="C167">
+        <v>3600</v>
+      </c>
+      <c r="D167">
         <v>40</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>41.712474794715966</v>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>58.580999999999996</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>1.21</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -3787,19 +4291,22 @@
         <v>4.8</v>
       </c>
       <c r="C168">
+        <v>3600</v>
+      </c>
+      <c r="D168">
         <v>40</v>
       </c>
-      <c r="D168">
+      <c r="E168">
         <v>39.240362087390146</v>
       </c>
-      <c r="E168">
+      <c r="F168">
         <v>77.231200000000015</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>1.41</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -3807,19 +4314,22 @@
         <v>4.8</v>
       </c>
       <c r="C169">
+        <v>3600</v>
+      </c>
+      <c r="D169">
         <v>40</v>
       </c>
-      <c r="D169">
+      <c r="E169">
         <v>36.019101695154006</v>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>96.051833333333335</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>1.5</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -3827,19 +4337,22 @@
         <v>4.8</v>
       </c>
       <c r="C170">
+        <v>3600</v>
+      </c>
+      <c r="D170">
         <v>40</v>
       </c>
-      <c r="D170">
+      <c r="E170">
         <v>31.876432858350956</v>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>115.28066666666666</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>1.58</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -3847,19 +4360,22 @@
         <v>4.8</v>
       </c>
       <c r="C171">
+        <v>3600</v>
+      </c>
+      <c r="D171">
         <v>40</v>
       </c>
-      <c r="D171">
+      <c r="E171">
         <v>26.536977076663739</v>
       </c>
-      <c r="E171">
+      <c r="F171">
         <v>134.239</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>1.68</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -3867,19 +4383,22 @@
         <v>4.8</v>
       </c>
       <c r="C172">
+        <v>3600</v>
+      </c>
+      <c r="D172">
         <v>40</v>
       </c>
-      <c r="D172">
+      <c r="E172">
         <v>20.013275101286702</v>
       </c>
-      <c r="E172">
+      <c r="F172">
         <v>154.02500000000001</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>1.75</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -3887,19 +4406,22 @@
         <v>4.8</v>
       </c>
       <c r="C173">
+        <v>3600</v>
+      </c>
+      <c r="D173">
         <v>40</v>
       </c>
-      <c r="D173">
+      <c r="E173">
         <v>14.556698110280546</v>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>167.67099999999999</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>1.78</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -3907,19 +4429,22 @@
         <v>4.8</v>
       </c>
       <c r="C174">
+        <v>3600</v>
+      </c>
+      <c r="D174">
         <v>30</v>
       </c>
-      <c r="D174">
+      <c r="E174">
         <v>23.222000000000001</v>
       </c>
-      <c r="E174">
+      <c r="F174">
         <v>0</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>0.34</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -3927,19 +4452,22 @@
         <v>4.8</v>
       </c>
       <c r="C175">
+        <v>3600</v>
+      </c>
+      <c r="D175">
         <v>30</v>
       </c>
-      <c r="D175">
+      <c r="E175">
         <v>23.993007957035697</v>
       </c>
-      <c r="E175">
+      <c r="F175">
         <v>14.410500000000001</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>0.4</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -3947,19 +4475,22 @@
         <v>4.8</v>
       </c>
       <c r="C176">
+        <v>3600</v>
+      </c>
+      <c r="D176">
         <v>30</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <v>24.206456928706128</v>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>29.474285714285717</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>0.48</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -3967,19 +4498,22 @@
         <v>4.8</v>
       </c>
       <c r="C177">
+        <v>3600</v>
+      </c>
+      <c r="D177">
         <v>30</v>
       </c>
-      <c r="D177">
+      <c r="E177">
         <v>23.611687776599542</v>
       </c>
-      <c r="E177">
+      <c r="F177">
         <v>43.436400000000006</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -3987,19 +4521,22 @@
         <v>4.8</v>
       </c>
       <c r="C178">
+        <v>3600</v>
+      </c>
+      <c r="D178">
         <v>30</v>
       </c>
-      <c r="D178">
+      <c r="E178">
         <v>22.088867740306146</v>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>58.227999999999994</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>0.66</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -4007,19 +4544,22 @@
         <v>4.8</v>
       </c>
       <c r="C179">
+        <v>3600</v>
+      </c>
+      <c r="D179">
         <v>30</v>
       </c>
-      <c r="D179">
+      <c r="E179">
         <v>20.319479157603837</v>
       </c>
-      <c r="E179">
+      <c r="F179">
         <v>72.525199999999998</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>0.68</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -4027,19 +4567,22 @@
         <v>4.8</v>
       </c>
       <c r="C180">
+        <v>3600</v>
+      </c>
+      <c r="D180">
         <v>30</v>
       </c>
-      <c r="D180">
+      <c r="E180">
         <v>18.059139518036883</v>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>86.207600000000014</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>0.72</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -4047,19 +4590,22 @@
         <v>4.8</v>
       </c>
       <c r="C181">
+        <v>3600</v>
+      </c>
+      <c r="D181">
         <v>30</v>
       </c>
-      <c r="D181">
+      <c r="E181">
         <v>15.001716867662758</v>
       </c>
-      <c r="E181">
+      <c r="F181">
         <v>100.97783333333332</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>0.75</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -4067,19 +4613,22 @@
         <v>4.8</v>
       </c>
       <c r="C182">
+        <v>3600</v>
+      </c>
+      <c r="D182">
         <v>30</v>
       </c>
-      <c r="D182">
+      <c r="E182">
         <v>11.44683599221711</v>
       </c>
-      <c r="E182">
+      <c r="F182">
         <v>115.24733333333332</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>0.78</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -4087,19 +4636,22 @@
         <v>4.8</v>
       </c>
       <c r="C183">
+        <v>3600</v>
+      </c>
+      <c r="D183">
         <v>30</v>
       </c>
-      <c r="D183">
+      <c r="E183">
         <v>8.3181983935002552</v>
       </c>
-      <c r="E183">
+      <c r="F183">
         <v>125.73383333333334</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>0.8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -4107,19 +4659,22 @@
         <v>4.8</v>
       </c>
       <c r="C184">
+        <v>3600</v>
+      </c>
+      <c r="D184">
         <v>20</v>
       </c>
-      <c r="D184">
+      <c r="E184">
         <v>10.439399999999999</v>
       </c>
-      <c r="E184">
+      <c r="F184">
         <v>0</v>
       </c>
-      <c r="F184">
+      <c r="G184">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -4127,19 +4682,22 @@
         <v>4.8</v>
       </c>
       <c r="C185">
+        <v>3600</v>
+      </c>
+      <c r="D185">
         <v>20</v>
       </c>
-      <c r="D185">
+      <c r="E185">
         <v>10.779810245581587</v>
       </c>
-      <c r="E185">
+      <c r="F185">
         <v>9.984</v>
       </c>
-      <c r="F185">
+      <c r="G185">
         <v>0.16</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -4147,19 +4705,22 @@
         <v>4.8</v>
       </c>
       <c r="C186">
+        <v>3600</v>
+      </c>
+      <c r="D186">
         <v>20</v>
       </c>
-      <c r="D186">
+      <c r="E186">
         <v>10.894331078068765</v>
       </c>
-      <c r="E186">
+      <c r="F186">
         <v>19.226142857142861</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>0.18</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -4167,19 +4728,22 @@
         <v>4.8</v>
       </c>
       <c r="C187">
+        <v>3600</v>
+      </c>
+      <c r="D187">
         <v>20</v>
       </c>
-      <c r="D187">
+      <c r="E187">
         <v>10.601290661281995</v>
       </c>
-      <c r="E187">
+      <c r="F187">
         <v>29.503666666666664</v>
       </c>
-      <c r="F187">
+      <c r="G187">
         <v>0.21</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -4187,19 +4751,22 @@
         <v>4.8</v>
       </c>
       <c r="C188">
+        <v>3600</v>
+      </c>
+      <c r="D188">
         <v>20</v>
       </c>
-      <c r="D188">
+      <c r="E188">
         <v>10.065811164638035</v>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>38.760833333333331</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>0.22</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -4207,19 +4774,22 @@
         <v>4.8</v>
       </c>
       <c r="C189">
+        <v>3600</v>
+      </c>
+      <c r="D189">
         <v>20</v>
       </c>
-      <c r="D189">
+      <c r="E189">
         <v>9.2322696208720387</v>
       </c>
-      <c r="E189">
+      <c r="F189">
         <v>48.168166666666671</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>0.25</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -4227,19 +4797,22 @@
         <v>4.8</v>
       </c>
       <c r="C190">
+        <v>3600</v>
+      </c>
+      <c r="D190">
         <v>20</v>
       </c>
-      <c r="D190">
+      <c r="E190">
         <v>8.1777876866039971</v>
       </c>
-      <c r="E190">
+      <c r="F190">
         <v>58.187800000000003</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>0.26</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -4247,19 +4820,22 @@
         <v>4.8</v>
       </c>
       <c r="C191">
+        <v>3600</v>
+      </c>
+      <c r="D191">
         <v>20</v>
       </c>
-      <c r="D191">
+      <c r="E191">
         <v>6.9208862618069729</v>
       </c>
-      <c r="E191">
+      <c r="F191">
         <v>67.224833333333336</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>0.26</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -4267,19 +4843,22 @@
         <v>4.8</v>
       </c>
       <c r="C192">
+        <v>3600</v>
+      </c>
+      <c r="D192">
         <v>20</v>
       </c>
-      <c r="D192">
+      <c r="E192">
         <v>5.2845430984272133</v>
       </c>
-      <c r="E192">
+      <c r="F192">
         <v>77.292200000000008</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>0.27</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -4287,19 +4866,22 @@
         <v>4.8</v>
       </c>
       <c r="C193">
+        <v>3600</v>
+      </c>
+      <c r="D193">
         <v>20</v>
       </c>
-      <c r="D193">
+      <c r="E193">
         <v>3.861776859040662</v>
       </c>
-      <c r="E193">
+      <c r="F193">
         <v>84.200600000000009</v>
       </c>
-      <c r="F193">
+      <c r="G193">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -4307,19 +4889,22 @@
         <v>5.25</v>
       </c>
       <c r="C194">
+        <v>3600</v>
+      </c>
+      <c r="D194">
         <v>65</v>
       </c>
-      <c r="D194">
+      <c r="E194">
         <v>131.79900000000001</v>
       </c>
-      <c r="E194">
+      <c r="F194">
         <v>0</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>3.3</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -4327,19 +4912,22 @@
         <v>5.25</v>
       </c>
       <c r="C195">
+        <v>3600</v>
+      </c>
+      <c r="D195">
         <v>65</v>
       </c>
-      <c r="D195">
+      <c r="E195">
         <v>134.79980294578411</v>
       </c>
-      <c r="E195">
+      <c r="F195">
         <v>35.466166666666673</v>
       </c>
-      <c r="F195">
+      <c r="G195">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -4347,19 +4935,22 @@
         <v>5.25</v>
       </c>
       <c r="C196">
+        <v>3600</v>
+      </c>
+      <c r="D196">
         <v>65</v>
       </c>
-      <c r="D196">
+      <c r="E196">
         <v>134.25919543288094</v>
       </c>
-      <c r="E196">
+      <c r="F196">
         <v>70.136250000000004</v>
       </c>
-      <c r="F196">
+      <c r="G196">
         <v>5.0519999999999996</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -4367,19 +4958,22 @@
         <v>5.25</v>
       </c>
       <c r="C197">
+        <v>3600</v>
+      </c>
+      <c r="D197">
         <v>65</v>
       </c>
-      <c r="D197">
+      <c r="E197">
         <v>128.61679722406564</v>
       </c>
-      <c r="E197">
+      <c r="F197">
         <v>104.33340000000001</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>5.92</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -4387,19 +4981,22 @@
         <v>5.25</v>
       </c>
       <c r="C198">
+        <v>3600</v>
+      </c>
+      <c r="D198">
         <v>65</v>
       </c>
-      <c r="D198">
+      <c r="E198">
         <v>119.75587343973866</v>
       </c>
-      <c r="E198">
+      <c r="F198">
         <v>139.43699999999998</v>
       </c>
-      <c r="F198">
+      <c r="G198">
         <v>6.7409999999999997</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -4407,19 +5004,22 @@
         <v>5.25</v>
       </c>
       <c r="C199">
+        <v>3600</v>
+      </c>
+      <c r="D199">
         <v>65</v>
       </c>
-      <c r="D199">
+      <c r="E199">
         <v>108.09232976513985</v>
       </c>
-      <c r="E199">
+      <c r="F199">
         <v>174.72399999999999</v>
       </c>
-      <c r="F199">
+      <c r="G199">
         <v>7.4770000000000003</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -4427,19 +5027,22 @@
         <v>5.25</v>
       </c>
       <c r="C200">
+        <v>3600</v>
+      </c>
+      <c r="D200">
         <v>65</v>
       </c>
-      <c r="D200">
+      <c r="E200">
         <v>94.897166381804141</v>
       </c>
-      <c r="E200">
+      <c r="F200">
         <v>209.42357142857145</v>
       </c>
-      <c r="F200">
+      <c r="G200">
         <v>8.1240000000000006</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -4447,19 +5050,22 @@
         <v>5.25</v>
       </c>
       <c r="C201">
+        <v>3600</v>
+      </c>
+      <c r="D201">
         <v>60</v>
       </c>
-      <c r="D201">
+      <c r="E201">
         <v>113.24433333333332</v>
       </c>
-      <c r="E201">
+      <c r="F201">
         <v>0</v>
       </c>
-      <c r="F201">
+      <c r="G201">
         <v>2.6160000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -4467,19 +5073,22 @@
         <v>5.25</v>
       </c>
       <c r="C202">
+        <v>3600</v>
+      </c>
+      <c r="D202">
         <v>60</v>
       </c>
-      <c r="D202">
+      <c r="E202">
         <v>116.10006271256846</v>
       </c>
-      <c r="E202">
+      <c r="F202">
         <v>32.334999999999994</v>
       </c>
-      <c r="F202">
+      <c r="G202">
         <v>3.2549999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -4487,19 +5096,22 @@
         <v>5.25</v>
       </c>
       <c r="C203">
+        <v>3600</v>
+      </c>
+      <c r="D203">
         <v>60</v>
       </c>
-      <c r="D203">
+      <c r="E203">
         <v>115.89597321005571</v>
       </c>
-      <c r="E203">
+      <c r="F203">
         <v>64.162500000000009</v>
       </c>
-      <c r="F203">
+      <c r="G203">
         <v>3.9980000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -4507,19 +5119,22 @@
         <v>5.25</v>
       </c>
       <c r="C204">
+        <v>3600</v>
+      </c>
+      <c r="D204">
         <v>60</v>
       </c>
-      <c r="D204">
+      <c r="E204">
         <v>111.42952745946346</v>
       </c>
-      <c r="E204">
+      <c r="F204">
         <v>96.250666666666646</v>
       </c>
-      <c r="F204">
+      <c r="G204">
         <v>4.6820000000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -4527,19 +5142,22 @@
         <v>5.25</v>
       </c>
       <c r="C205">
+        <v>3600</v>
+      </c>
+      <c r="D205">
         <v>60</v>
       </c>
-      <c r="D205">
+      <c r="E205">
         <v>104.11131262560443</v>
       </c>
-      <c r="E205">
+      <c r="F205">
         <v>128.48099999999999</v>
       </c>
-      <c r="F205">
+      <c r="G205">
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -4547,19 +5165,22 @@
         <v>5.25</v>
       </c>
       <c r="C206">
+        <v>3600</v>
+      </c>
+      <c r="D206">
         <v>60</v>
       </c>
-      <c r="D206">
+      <c r="E206">
         <v>94.892166975907301</v>
       </c>
-      <c r="E206">
+      <c r="F206">
         <v>160.23500000000001</v>
       </c>
-      <c r="F206">
+      <c r="G206">
         <v>5.89</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -4567,19 +5188,22 @@
         <v>5.25</v>
       </c>
       <c r="C207">
+        <v>3600</v>
+      </c>
+      <c r="D207">
         <v>60</v>
       </c>
-      <c r="D207">
+      <c r="E207">
         <v>83.603405895340586</v>
       </c>
-      <c r="E207">
+      <c r="F207">
         <v>193.66374999999999</v>
       </c>
-      <c r="F207">
+      <c r="G207">
         <v>6.4290000000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -4587,19 +5211,22 @@
         <v>5.25</v>
       </c>
       <c r="C208">
+        <v>3600</v>
+      </c>
+      <c r="D208">
         <v>60</v>
       </c>
-      <c r="D208">
+      <c r="E208">
         <v>69.750583314793744</v>
       </c>
-      <c r="E208">
+      <c r="F208">
         <v>225.21840000000003</v>
       </c>
-      <c r="F208">
+      <c r="G208">
         <v>6.8570000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -4607,19 +5234,22 @@
         <v>5.25</v>
       </c>
       <c r="C209">
+        <v>3600</v>
+      </c>
+      <c r="D209">
         <v>60</v>
       </c>
-      <c r="D209">
+      <c r="E209">
         <v>52.65309759440396</v>
       </c>
-      <c r="E209">
+      <c r="F209">
         <v>257.11360000000002</v>
       </c>
-      <c r="F209">
+      <c r="G209">
         <v>7.18</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -4627,19 +5257,22 @@
         <v>5.25</v>
       </c>
       <c r="C210">
+        <v>3600</v>
+      </c>
+      <c r="D210">
         <v>60</v>
       </c>
-      <c r="D210">
+      <c r="E210">
         <v>36.628252658333615</v>
       </c>
-      <c r="E210">
+      <c r="F210">
         <v>280.97480000000002</v>
       </c>
-      <c r="F210">
+      <c r="G210">
         <v>7.3310000000000004</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -4647,19 +5280,22 @@
         <v>5.25</v>
       </c>
       <c r="C211">
+        <v>3600</v>
+      </c>
+      <c r="D211">
         <v>55</v>
       </c>
-      <c r="D211">
+      <c r="E211">
         <v>95.874571428571429</v>
       </c>
-      <c r="E211">
+      <c r="F211">
         <v>0</v>
       </c>
-      <c r="F211">
+      <c r="G211">
         <v>2.0630000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -4667,19 +5303,22 @@
         <v>5.25</v>
       </c>
       <c r="C212">
+        <v>3600</v>
+      </c>
+      <c r="D212">
         <v>55</v>
       </c>
-      <c r="D212">
+      <c r="E212">
         <v>98.371555499793971</v>
       </c>
-      <c r="E212">
+      <c r="F212">
         <v>29.257833333333338</v>
       </c>
-      <c r="F212">
+      <c r="G212">
         <v>2.54</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -4687,19 +5326,22 @@
         <v>5.25</v>
       </c>
       <c r="C213">
+        <v>3600</v>
+      </c>
+      <c r="D213">
         <v>55</v>
       </c>
-      <c r="D213">
+      <c r="E213">
         <v>98.454047937836933</v>
       </c>
-      <c r="E213">
+      <c r="F213">
         <v>59.303600000000003</v>
       </c>
-      <c r="F213">
+      <c r="G213">
         <v>3.1269999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -4707,19 +5349,22 @@
         <v>5.25</v>
       </c>
       <c r="C214">
+        <v>3600</v>
+      </c>
+      <c r="D214">
         <v>55</v>
       </c>
-      <c r="D214">
+      <c r="E214">
         <v>94.942010412175563</v>
       </c>
-      <c r="E214">
+      <c r="F214">
         <v>88.382200000000012</v>
       </c>
-      <c r="F214">
+      <c r="G214">
         <v>3.645</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -4727,19 +5372,22 @@
         <v>5.25</v>
       </c>
       <c r="C215">
+        <v>3600</v>
+      </c>
+      <c r="D215">
         <v>55</v>
       </c>
-      <c r="D215">
+      <c r="E215">
         <v>89.066134732796854</v>
       </c>
-      <c r="E215">
+      <c r="F215">
         <v>118.27539999999999</v>
       </c>
-      <c r="F215">
+      <c r="G215">
         <v>4.141</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -4747,19 +5395,22 @@
         <v>5.25</v>
       </c>
       <c r="C216">
+        <v>3600</v>
+      </c>
+      <c r="D216">
         <v>55</v>
       </c>
-      <c r="D216">
+      <c r="E216">
         <v>81.15460553761659</v>
       </c>
-      <c r="E216">
+      <c r="F216">
         <v>147.60500000000002</v>
       </c>
-      <c r="F216">
+      <c r="G216">
         <v>4.5949999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -4767,19 +5418,22 @@
         <v>5.25</v>
       </c>
       <c r="C217">
+        <v>3600</v>
+      </c>
+      <c r="D217">
         <v>55</v>
       </c>
-      <c r="D217">
+      <c r="E217">
         <v>72.602355205346427</v>
       </c>
-      <c r="E217">
+      <c r="F217">
         <v>176.65</v>
       </c>
-      <c r="F217">
+      <c r="G217">
         <v>4.9850000000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -4787,19 +5441,22 @@
         <v>5.25</v>
       </c>
       <c r="C218">
+        <v>3600</v>
+      </c>
+      <c r="D218">
         <v>55</v>
       </c>
-      <c r="D218">
+      <c r="E218">
         <v>60.913666893495652</v>
       </c>
-      <c r="E218">
+      <c r="F218">
         <v>206.7355</v>
       </c>
-      <c r="F218">
+      <c r="G218">
         <v>5.327</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -4807,19 +5464,22 @@
         <v>5.25</v>
       </c>
       <c r="C219">
+        <v>3600</v>
+      </c>
+      <c r="D219">
         <v>55</v>
       </c>
-      <c r="D219">
+      <c r="E219">
         <v>47.036259152672756</v>
       </c>
-      <c r="E219">
+      <c r="F219">
         <v>235.38580000000002</v>
       </c>
-      <c r="F219">
+      <c r="G219">
         <v>5.59</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -4827,19 +5487,22 @@
         <v>5.25</v>
       </c>
       <c r="C220">
+        <v>3600</v>
+      </c>
+      <c r="D220">
         <v>55</v>
       </c>
-      <c r="D220">
+      <c r="E220">
         <v>31.737793404389265</v>
       </c>
-      <c r="E220">
+      <c r="F220">
         <v>261.25599999999997</v>
       </c>
-      <c r="F220">
+      <c r="G220">
         <v>5.7329999999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -4847,19 +5510,22 @@
         <v>5.25</v>
       </c>
       <c r="C221">
+        <v>3600</v>
+      </c>
+      <c r="D221">
         <v>50</v>
       </c>
-      <c r="D221">
+      <c r="E221">
         <v>79.341142857142856</v>
       </c>
-      <c r="E221">
+      <c r="F221">
         <v>0</v>
       </c>
-      <c r="F221">
+      <c r="G221">
         <v>1.5649999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -4867,19 +5533,22 @@
         <v>5.25</v>
       </c>
       <c r="C222">
+        <v>3600</v>
+      </c>
+      <c r="D222">
         <v>50</v>
       </c>
-      <c r="D222">
+      <c r="E222">
         <v>81.447571900420542</v>
       </c>
-      <c r="E222">
+      <c r="F222">
         <v>27.304000000000002</v>
       </c>
-      <c r="F222">
+      <c r="G222">
         <v>1.9379999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -4887,19 +5556,22 @@
         <v>5.25</v>
       </c>
       <c r="C223">
+        <v>3600</v>
+      </c>
+      <c r="D223">
         <v>50</v>
       </c>
-      <c r="D223">
+      <c r="E223">
         <v>81.533443958687201</v>
       </c>
-      <c r="E223">
+      <c r="F223">
         <v>53.642800000000008</v>
       </c>
-      <c r="F223">
+      <c r="G223">
         <v>2.36</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -4907,19 +5579,22 @@
         <v>5.25</v>
       </c>
       <c r="C224">
+        <v>3600</v>
+      </c>
+      <c r="D224">
         <v>50</v>
       </c>
-      <c r="D224">
+      <c r="E224">
         <v>78.637726521461445</v>
       </c>
-      <c r="E224">
+      <c r="F224">
         <v>80.708666666666673</v>
       </c>
-      <c r="F224">
+      <c r="G224">
         <v>2.7629999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -4927,19 +5602,22 @@
         <v>5.25</v>
       </c>
       <c r="C225">
+        <v>3600</v>
+      </c>
+      <c r="D225">
         <v>50</v>
       </c>
-      <c r="D225">
+      <c r="E225">
         <v>73.799442351734783</v>
       </c>
-      <c r="E225">
+      <c r="F225">
         <v>107.1096</v>
       </c>
-      <c r="F225">
+      <c r="G225">
         <v>3.1280000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -4947,19 +5625,22 @@
         <v>5.25</v>
       </c>
       <c r="C226">
+        <v>3600</v>
+      </c>
+      <c r="D226">
         <v>50</v>
       </c>
-      <c r="D226">
+      <c r="E226">
         <v>67.193554813483615</v>
       </c>
-      <c r="E226">
+      <c r="F226">
         <v>134.88259999999997</v>
       </c>
-      <c r="F226">
+      <c r="G226">
         <v>3.4750000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -4967,19 +5648,22 @@
         <v>5.25</v>
       </c>
       <c r="C227">
+        <v>3600</v>
+      </c>
+      <c r="D227">
         <v>50</v>
       </c>
-      <c r="D227">
+      <c r="E227">
         <v>60.377249348594987</v>
       </c>
-      <c r="E227">
+      <c r="F227">
         <v>160.36600000000001</v>
       </c>
-      <c r="F227">
+      <c r="G227">
         <v>3.7559999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -4987,19 +5671,22 @@
         <v>5.25</v>
       </c>
       <c r="C228">
+        <v>3600</v>
+      </c>
+      <c r="D228">
         <v>50</v>
       </c>
-      <c r="D228">
+      <c r="E228">
         <v>51.009355417912388</v>
       </c>
-      <c r="E228">
+      <c r="F228">
         <v>187.00716666666665</v>
       </c>
-      <c r="F228">
+      <c r="G228">
         <v>4.0110000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -5007,19 +5694,22 @@
         <v>5.25</v>
       </c>
       <c r="C229">
+        <v>3600</v>
+      </c>
+      <c r="D229">
         <v>50</v>
       </c>
-      <c r="D229">
+      <c r="E229">
         <v>39.211714307571157</v>
       </c>
-      <c r="E229">
+      <c r="F229">
         <v>214.25974999999997</v>
       </c>
-      <c r="F229">
+      <c r="G229">
         <v>4.2140000000000004</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -5027,19 +5717,22 @@
         <v>5.25</v>
       </c>
       <c r="C230">
+        <v>3600</v>
+      </c>
+      <c r="D230">
         <v>50</v>
       </c>
-      <c r="D230">
+      <c r="E230">
         <v>26.519144707901415</v>
       </c>
-      <c r="E230">
+      <c r="F230">
         <v>238.97919999999999</v>
       </c>
-      <c r="F230">
+      <c r="G230">
         <v>4.3330000000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -5047,19 +5740,22 @@
         <v>5.25</v>
       </c>
       <c r="C231">
+        <v>3600</v>
+      </c>
+      <c r="D231">
         <v>40</v>
       </c>
-      <c r="D231">
+      <c r="E231">
         <v>50.7425</v>
       </c>
-      <c r="E231">
+      <c r="F231">
         <v>0</v>
       </c>
-      <c r="F231">
+      <c r="G231">
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -5067,19 +5763,22 @@
         <v>5.25</v>
       </c>
       <c r="C232">
+        <v>3600</v>
+      </c>
+      <c r="D232">
         <v>40</v>
       </c>
-      <c r="D232">
+      <c r="E232">
         <v>52.016945411035884</v>
       </c>
-      <c r="E232">
+      <c r="F232">
         <v>21.173166666666667</v>
       </c>
-      <c r="F232">
+      <c r="G232">
         <v>1.004</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -5087,19 +5786,22 @@
         <v>5.25</v>
       </c>
       <c r="C233">
+        <v>3600</v>
+      </c>
+      <c r="D233">
         <v>40</v>
       </c>
-      <c r="D233">
+      <c r="E233">
         <v>52.041857249760426</v>
       </c>
-      <c r="E233">
+      <c r="F233">
         <v>43.631399999999999</v>
       </c>
-      <c r="F233">
+      <c r="G233">
         <v>1.2350000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -5107,19 +5809,22 @@
         <v>5.25</v>
       </c>
       <c r="C234">
+        <v>3600</v>
+      </c>
+      <c r="D234">
         <v>40</v>
       </c>
-      <c r="D234">
+      <c r="E234">
         <v>50.22757874148077</v>
       </c>
-      <c r="E234">
+      <c r="F234">
         <v>64.398750000000007</v>
       </c>
-      <c r="F234">
+      <c r="G234">
         <v>1.4379999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -5127,19 +5832,22 @@
         <v>5.25</v>
       </c>
       <c r="C235">
+        <v>3600</v>
+      </c>
+      <c r="D235">
         <v>40</v>
       </c>
-      <c r="D235">
+      <c r="E235">
         <v>46.957609585880036</v>
       </c>
-      <c r="E235">
+      <c r="F235">
         <v>86.227833333333322</v>
       </c>
-      <c r="F235">
+      <c r="G235">
         <v>1.6279999999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -5147,19 +5855,22 @@
         <v>5.25</v>
       </c>
       <c r="C236">
+        <v>3600</v>
+      </c>
+      <c r="D236">
         <v>40</v>
       </c>
-      <c r="D236">
+      <c r="E236">
         <v>42.833239910772754</v>
       </c>
-      <c r="E236">
+      <c r="F236">
         <v>107.92419999999997</v>
       </c>
-      <c r="F236">
+      <c r="G236">
         <v>1.7969999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -5167,19 +5878,22 @@
         <v>5.25</v>
       </c>
       <c r="C237">
+        <v>3600</v>
+      </c>
+      <c r="D237">
         <v>40</v>
       </c>
-      <c r="D237">
+      <c r="E237">
         <v>38.583509003117378</v>
       </c>
-      <c r="E237">
+      <c r="F237">
         <v>128.22475</v>
       </c>
-      <c r="F237">
+      <c r="G237">
         <v>1.9419999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -5187,19 +5901,22 @@
         <v>5.25</v>
       </c>
       <c r="C238">
+        <v>3600</v>
+      </c>
+      <c r="D238">
         <v>40</v>
       </c>
-      <c r="D238">
+      <c r="E238">
         <v>32.248853241583511</v>
       </c>
-      <c r="E238">
+      <c r="F238">
         <v>150.77460000000002</v>
       </c>
-      <c r="F238">
+      <c r="G238">
         <v>2.0790000000000002</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -5207,19 +5924,22 @@
         <v>5.25</v>
       </c>
       <c r="C239">
+        <v>3600</v>
+      </c>
+      <c r="D239">
         <v>40</v>
       </c>
-      <c r="D239">
+      <c r="E239">
         <v>24.866134897644276</v>
       </c>
-      <c r="E239">
+      <c r="F239">
         <v>171.10916666666665</v>
       </c>
-      <c r="F239">
+      <c r="G239">
         <v>2.1749999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -5227,19 +5947,22 @@
         <v>5.25</v>
       </c>
       <c r="C240">
+        <v>3600</v>
+      </c>
+      <c r="D240">
         <v>40</v>
       </c>
-      <c r="D240">
+      <c r="E240">
         <v>17.000499148739955</v>
       </c>
-      <c r="E240">
+      <c r="F240">
         <v>191.07774999999998</v>
       </c>
-      <c r="F240">
+      <c r="G240">
         <v>2.2360000000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -5247,19 +5970,22 @@
         <v>5.25</v>
       </c>
       <c r="C241">
+        <v>3600</v>
+      </c>
+      <c r="D241">
         <v>30</v>
       </c>
-      <c r="D241">
+      <c r="E241">
         <v>28.676500000000001</v>
       </c>
-      <c r="E241">
+      <c r="F241">
         <v>0</v>
       </c>
-      <c r="F241">
+      <c r="G241">
         <v>0.372</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -5267,19 +5993,22 @@
         <v>5.25</v>
       </c>
       <c r="C242">
+        <v>3600</v>
+      </c>
+      <c r="D242">
         <v>30</v>
       </c>
-      <c r="D242">
+      <c r="E242">
         <v>29.321786824581718</v>
       </c>
-      <c r="E242">
+      <c r="F242">
         <v>16.613250000000001</v>
       </c>
-      <c r="F242">
+      <c r="G242">
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -5287,19 +6016,22 @@
         <v>5.25</v>
       </c>
       <c r="C243">
+        <v>3600</v>
+      </c>
+      <c r="D243">
         <v>30</v>
       </c>
-      <c r="D243">
+      <c r="E243">
         <v>29.319761528053746</v>
       </c>
-      <c r="E243">
+      <c r="F243">
         <v>32.429333333333325</v>
       </c>
-      <c r="F243">
+      <c r="G243">
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -5307,19 +6039,22 @@
         <v>5.25</v>
       </c>
       <c r="C244">
+        <v>3600</v>
+      </c>
+      <c r="D244">
         <v>30</v>
       </c>
-      <c r="D244">
+      <c r="E244">
         <v>28.33697775875309</v>
       </c>
-      <c r="E244">
+      <c r="F244">
         <v>48.266800000000003</v>
       </c>
-      <c r="F244">
+      <c r="G244">
         <v>0.626</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -5327,19 +6062,22 @@
         <v>5.25</v>
       </c>
       <c r="C245">
+        <v>3600</v>
+      </c>
+      <c r="D245">
         <v>30</v>
       </c>
-      <c r="D245">
+      <c r="E245">
         <v>26.49336333592629</v>
       </c>
-      <c r="E245">
+      <c r="F245">
         <v>64.560199999999995</v>
       </c>
-      <c r="F245">
+      <c r="G245">
         <v>0.71</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -5347,19 +6085,22 @@
         <v>5.25</v>
       </c>
       <c r="C246">
+        <v>3600</v>
+      </c>
+      <c r="D246">
         <v>30</v>
       </c>
-      <c r="D246">
+      <c r="E246">
         <v>24.301227525753248</v>
       </c>
-      <c r="E246">
+      <c r="F246">
         <v>80.437250000000006</v>
       </c>
-      <c r="F246">
+      <c r="G246">
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -5367,19 +6108,22 @@
         <v>5.25</v>
       </c>
       <c r="C247">
+        <v>3600</v>
+      </c>
+      <c r="D247">
         <v>30</v>
       </c>
-      <c r="D247">
+      <c r="E247">
         <v>21.687493107590555</v>
       </c>
-      <c r="E247">
+      <c r="F247">
         <v>96.601250000000007</v>
       </c>
-      <c r="F247">
+      <c r="G247">
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -5387,19 +6131,22 @@
         <v>5.25</v>
       </c>
       <c r="C248">
+        <v>3600</v>
+      </c>
+      <c r="D248">
         <v>30</v>
       </c>
-      <c r="D248">
+      <c r="E248">
         <v>18.200595120963985</v>
       </c>
-      <c r="E248">
+      <c r="F248">
         <v>112.44340000000003</v>
       </c>
-      <c r="F248">
+      <c r="G248">
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -5407,19 +6154,22 @@
         <v>5.25</v>
       </c>
       <c r="C249">
+        <v>3600</v>
+      </c>
+      <c r="D249">
         <v>30</v>
       </c>
-      <c r="D249">
+      <c r="E249">
         <v>14.153859945479578</v>
       </c>
-      <c r="E249">
+      <c r="F249">
         <v>128.18899999999999</v>
       </c>
-      <c r="F249">
+      <c r="G249">
         <v>0.94</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -5427,19 +6177,22 @@
         <v>5.25</v>
       </c>
       <c r="C250">
+        <v>3600</v>
+      </c>
+      <c r="D250">
         <v>30</v>
       </c>
-      <c r="D250">
+      <c r="E250">
         <v>9.6076132448195608</v>
       </c>
-      <c r="E250">
+      <c r="F250">
         <v>143.35133333333332</v>
       </c>
-      <c r="F250">
+      <c r="G250">
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -5447,19 +6200,22 @@
         <v>5.25</v>
       </c>
       <c r="C251">
+        <v>3600</v>
+      </c>
+      <c r="D251">
         <v>20</v>
       </c>
-      <c r="D251">
+      <c r="E251">
         <v>12.862250000000001</v>
       </c>
-      <c r="E251">
+      <c r="F251">
         <v>0</v>
       </c>
-      <c r="F251">
+      <c r="G251">
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -5467,19 +6223,22 @@
         <v>5.25</v>
       </c>
       <c r="C252">
+        <v>3600</v>
+      </c>
+      <c r="D252">
         <v>20</v>
       </c>
-      <c r="D252">
+      <c r="E252">
         <v>13.154712538923858</v>
       </c>
-      <c r="E252">
+      <c r="F252">
         <v>11.4155</v>
       </c>
-      <c r="F252">
+      <c r="G252">
         <v>0.16</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -5487,19 +6246,22 @@
         <v>5.25</v>
       </c>
       <c r="C253">
+        <v>3600</v>
+      </c>
+      <c r="D253">
         <v>20</v>
       </c>
-      <c r="D253">
+      <c r="E253">
         <v>13.158669839507878</v>
       </c>
-      <c r="E253">
+      <c r="F253">
         <v>21.260857142857141</v>
       </c>
-      <c r="F253">
+      <c r="G253">
         <v>0.184</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -5507,19 +6269,22 @@
         <v>5.25</v>
       </c>
       <c r="C254">
+        <v>3600</v>
+      </c>
+      <c r="D254">
         <v>20</v>
       </c>
-      <c r="D254">
+      <c r="E254">
         <v>12.73161879245677</v>
       </c>
-      <c r="E254">
+      <c r="F254">
         <v>32.430500000000002</v>
       </c>
-      <c r="F254">
+      <c r="G254">
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -5527,19 +6292,22 @@
         <v>5.25</v>
       </c>
       <c r="C255">
+        <v>3600</v>
+      </c>
+      <c r="D255">
         <v>20</v>
       </c>
-      <c r="D255">
+      <c r="E255">
         <v>11.916695849929562</v>
       </c>
-      <c r="E255">
+      <c r="F255">
         <v>43.545749999999998</v>
       </c>
-      <c r="F255">
+      <c r="G255">
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -5547,19 +6315,22 @@
         <v>5.25</v>
       </c>
       <c r="C256">
+        <v>3600</v>
+      </c>
+      <c r="D256">
         <v>20</v>
       </c>
-      <c r="D256">
+      <c r="E256">
         <v>10.939558674528651</v>
       </c>
-      <c r="E256">
+      <c r="F256">
         <v>53.402000000000008</v>
       </c>
-      <c r="F256">
+      <c r="G256">
         <v>0.254</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -5567,19 +6338,22 @@
         <v>5.25</v>
       </c>
       <c r="C257">
+        <v>3600</v>
+      </c>
+      <c r="D257">
         <v>20</v>
       </c>
-      <c r="D257">
+      <c r="E257">
         <v>9.7645822317780073</v>
       </c>
-      <c r="E257">
+      <c r="F257">
         <v>64.284166666666678</v>
       </c>
-      <c r="F257">
+      <c r="G257">
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -5587,19 +6361,22 @@
         <v>5.25</v>
       </c>
       <c r="C258">
+        <v>3600</v>
+      </c>
+      <c r="D258">
         <v>20</v>
       </c>
-      <c r="D258">
+      <c r="E258">
         <v>8.3155076211607959</v>
       </c>
-      <c r="E258">
+      <c r="F258">
         <v>74.705666666666673</v>
       </c>
-      <c r="F258">
+      <c r="G258">
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -5607,19 +6384,22 @@
         <v>5.25</v>
       </c>
       <c r="C259">
+        <v>3600</v>
+      </c>
+      <c r="D259">
         <v>20</v>
       </c>
-      <c r="D259">
+      <c r="E259">
         <v>6.4512844854851927</v>
       </c>
-      <c r="E259">
+      <c r="F259">
         <v>85.794799999999995</v>
       </c>
-      <c r="F259">
+      <c r="G259">
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -5627,15 +6407,18 @@
         <v>5.25</v>
       </c>
       <c r="C260">
+        <v>3600</v>
+      </c>
+      <c r="D260">
         <v>20</v>
       </c>
-      <c r="D260">
+      <c r="E260">
         <v>4.3596797296230854</v>
       </c>
-      <c r="E260">
+      <c r="F260">
         <v>96.346199999999996</v>
       </c>
-      <c r="F260">
+      <c r="G260">
         <v>0.318</v>
       </c>
     </row>
